--- a/debug and tests/select_dict.xlsx
+++ b/debug and tests/select_dict.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\QATEST\NV-L_CheckBot\debug and tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\QATEST\NV-L_CheckBot\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="СЛОВАРЬ СЕЛЕКТОРОВ" sheetId="4" r:id="rId1"/>
+    <sheet name="СЛОВАРЬ СЕЛЕКТОРОВ (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="СЛОВАРЬ СЕЛЕКТОРОВ" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>.active_old_price1&gt;div&gt;span:nth-child(2)</t>
   </si>
@@ -90,12 +91,84 @@
   </si>
   <si>
     <t>novapribor.ru</t>
+  </si>
+  <si>
+    <t>stomshop.pro</t>
+  </si>
+  <si>
+    <t>.price-1-new</t>
+  </si>
+  <si>
+    <t>#elementTools  .priceVal</t>
+  </si>
+  <si>
+    <t>.ut2-pb__price-actual .ty-price</t>
+  </si>
+  <si>
+    <t>stomart.ru</t>
+  </si>
+  <si>
+    <t>ondent.ru</t>
+  </si>
+  <si>
+    <t>itstom.ru</t>
+  </si>
+  <si>
+    <t>.prices_block .cost</t>
+  </si>
+  <si>
+    <t>glavmedproject.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .price-block__main</t>
+  </si>
+  <si>
+    <t>stomamart.ru</t>
+  </si>
+  <si>
+    <t>#price</t>
+  </si>
+  <si>
+    <t>goldident.ru</t>
+  </si>
+  <si>
+    <t>.price</t>
+  </si>
+  <si>
+    <t>dealmed.ru</t>
+  </si>
+  <si>
+    <t>.price1</t>
+  </si>
+  <si>
+    <t>dentalmarket.online</t>
+  </si>
+  <si>
+    <t>.product-id-price</t>
+  </si>
+  <si>
+    <t>unident-online.ru</t>
+  </si>
+  <si>
+    <t>youjoy-rus.ru</t>
+  </si>
+  <si>
+    <t>.prices_block .price_matrix_block .price_matrix_wrapper:nth-child(1) .price:nth-child(1)</t>
+  </si>
+  <si>
+    <t>mirdental.ru</t>
+  </si>
+  <si>
+    <t>stomdevice.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,19 +482,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -428,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -436,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -444,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -452,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -460,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -468,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -476,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -484,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -492,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -500,13 +572,316 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
